--- a/Assignments/Kroenecker product/fig/k.xlsx
+++ b/Assignments/Kroenecker product/fig/k.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOL" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="small" sheetId="3" r:id="rId3"/>
+    <sheet name="small " sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
   <si>
     <t>Gflops/S</t>
   </si>
@@ -72,6 +74,30 @@
   </si>
   <si>
     <t>Power inv</t>
+  </si>
+  <si>
+    <t>M=</t>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
+  <si>
+    <t>numThreads=</t>
+  </si>
+  <si>
+    <t>numBlocks=</t>
+  </si>
+  <si>
+    <t>time(sec)=</t>
+  </si>
+  <si>
+    <t>BW_prec=</t>
+  </si>
+  <si>
+    <t>GFLOPs/Sec=</t>
+  </si>
+  <si>
+    <t>BW(MB/s)=</t>
   </si>
 </sst>
 </file>
@@ -212,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,16 +276,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -275,6 +295,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,82 +503,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.12499618541914614</c:v>
+                  <c:v>0.1249847430733553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19999023485181389</c:v>
+                  <c:v>0.19996094512790472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23528060198747774</c:v>
+                  <c:v>0.23524006432345509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2461390541433808</c:v>
+                  <c:v>0.24609468877673635</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24901209799987842</c:v>
+                  <c:v>0.24896669097982008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24974086945917931</c:v>
+                  <c:v>0.24969519629358694</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.24987798926305516</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.2499237293306486</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.24996948614671061</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24998092796875238</c:v>
+                  <c:v>0.2499351669641359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2499837885879288</c:v>
+                  <c:v>0.24993802653608382</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24998450375295264</c:v>
+                  <c:v>0.2499387414392949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24998468254484796</c:v>
+                  <c:v>0.24993892016573671</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24998472724286175</c:v>
+                  <c:v>0.24993896484738709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24998473841736771</c:v>
+                  <c:v>0.24993897601780218</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.24998474121099434</c:v>
+                  <c:v>0.24993897881040611</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24998474190940101</c:v>
+                  <c:v>0.24993897950855712</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24998474208400268</c:v>
+                  <c:v>0.24993897968309486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24998474212765309</c:v>
+                  <c:v>0.24993897972672929</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2499847421385657</c:v>
+                  <c:v>0.2499389797376379</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.24998474214129385</c:v>
+                  <c:v>0.24993897974036505</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24998474214197589</c:v>
+                  <c:v>0.24993897974104684</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24998474214214639</c:v>
+                  <c:v>0.24993897974121729</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24998474214218902</c:v>
+                  <c:v>0.24993897974125989</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.24998474214219968</c:v>
+                  <c:v>0.24993897974127055</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.24998474214220234</c:v>
+                  <c:v>0.24993897974127322</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.24998474214220301</c:v>
+                  <c:v>0.24993897974127388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,82 +590,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>36.046899935915043</c:v>
+                  <c:v>36.043600146466495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.6739838875055</c:v>
+                  <c:v>57.665537199765673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.851161123556778</c:v>
+                  <c:v>67.839470709855277</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.98256499008474</c:v>
+                  <c:v>70.96977072819034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.811104869596946</c:v>
+                  <c:v>71.798010211524442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.021270898115972</c:v>
+                  <c:v>72.008099487929783</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>72.060814055636897</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>72.074004759289764</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>72.087200292932991</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.090499931340688</c:v>
+                  <c:v>72.077303189785368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.091324888141258</c:v>
+                  <c:v>72.078127844581999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.0915311302915</c:v>
+                  <c:v>72.078334011229629</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.091582691013443</c:v>
+                  <c:v>72.078385553075819</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.091595581205439</c:v>
+                  <c:v>72.078398438548888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.091598803754167</c:v>
+                  <c:v>72.078401659917873</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.091599609391395</c:v>
+                  <c:v>72.078402465260154</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.091599810800702</c:v>
+                  <c:v>72.078402666595736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.091599861153028</c:v>
+                  <c:v>72.078402716929631</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.091599873741117</c:v>
+                  <c:v>72.078402729513101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72.091599876888139</c:v>
+                  <c:v>72.078402732658972</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.091599877674895</c:v>
+                  <c:v>72.078402733445444</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.091599877871573</c:v>
+                  <c:v>72.078402733642051</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72.091599877920743</c:v>
+                  <c:v>72.078402733691206</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>72.091599877933035</c:v>
+                  <c:v>72.078402733703498</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>72.091599877936119</c:v>
+                  <c:v>72.078402733706568</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72.091599877936886</c:v>
+                  <c:v>72.078402733707335</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.091599877937071</c:v>
+                  <c:v>72.078402733707534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,10 +1364,556 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.59746766105439852"/>
-          <c:y val="0.38403434016457971"/>
-          <c:w val="0.24735473597733129"/>
-          <c:h val="0.20771751252110948"/>
+          <c:x val="0.60333124451946063"/>
+          <c:y val="0.36181213711922372"/>
+          <c:w val="0.32064985850584898"/>
+          <c:h val="0.2925659747077069"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800" b="1">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27874411229777341"/>
+          <c:y val="7.2575326451297606E-2"/>
+          <c:w val="0.65318275559296357"/>
+          <c:h val="0.620459643045702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N = 32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>small!$B$1:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>small!$N$1:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.49275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0366399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.69394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.74051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7590599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7637399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24B5-4183-8CDC-5D5AE86BF51D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N = 64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="41275" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>small!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>small!$N$9:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76687700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2195199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3598399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.41011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4191100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-24B5-4183-8CDC-5D5AE86BF51D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591658512"/>
+        <c:axId val="591658184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591658512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1024"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>M (A matrix Size)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28206963172045274"/>
+              <c:y val="0.77806792332776586"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591658184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="591658184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>BW %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.16055375998616739"/>
+              <c:y val="0.1932130756382725"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591658512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72353519185826598"/>
+          <c:y val="0.3254485007555874"/>
+          <c:w val="0.11764600641603286"/>
+          <c:h val="0.10398218404517617"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1401,6 +1985,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1956,8 +2580,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9891E90-A402-4B0B-B409-3B2C8C25D1A0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EDA109A5-EC13-42BC-A6D2-1EEF0C55AF8C}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
@@ -1972,13 +3124,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675221" cy="6293971"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AE7DB-38AC-40E1-B20E-9BA968D56BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264B8234-DF23-4752-BC77-FA623DF3DA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,14 +3489,14 @@
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -2323,20 +3508,20 @@
       <c r="C2" s="6">
         <v>288.38400000000001</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="20">
-        <v>128</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18">
+        <v>64</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
@@ -2355,18 +3540,18 @@
         <v>14</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2390,19 +3575,19 @@
       </c>
       <c r="G4" s="2">
         <f>4*(         POWER($F$2,2)            +                POWER(F4,2)              +             POWER($F$2 * F4,2)                    )</f>
-        <v>131076</v>
+        <v>32772</v>
       </c>
       <c r="H4" s="2">
-        <f>POWER($F$2*F4,2)</f>
-        <v>16384</v>
+        <f t="shared" ref="H4:H29" si="1">POWER($F$2*F4,2)</f>
+        <v>4096</v>
       </c>
       <c r="I4" s="2">
         <f>H4/G4</f>
-        <v>0.12499618541914614</v>
+        <v>0.1249847430733553</v>
       </c>
       <c r="J4" s="2">
         <f>I4*$C$2</f>
-        <v>36.046899935915043</v>
+        <v>36.043600146466495</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2418,24 +3603,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F29" si="1">POWER(2,E5)</f>
+        <f t="shared" ref="F5:F29" si="2">POWER(2,E5)</f>
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F5,2) + POWER($F$2 * F5,2))</f>
-        <v>327696</v>
+        <f t="shared" ref="G5:G29" si="3">4*(POWER($F$2,2)+POWER(F5,2) + POWER($F$2 * F5,2))</f>
+        <v>81936</v>
       </c>
       <c r="H5" s="2">
-        <f>POWER($F$2*F5,2)</f>
-        <v>65536</v>
+        <f t="shared" si="1"/>
+        <v>16384</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I29" si="2">H5/G5</f>
-        <v>0.19999023485181389</v>
+        <f t="shared" ref="I5:I29" si="4">H5/G5</f>
+        <v>0.19996094512790472</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J29" si="3">I5*$C$2</f>
-        <v>57.6739838875055</v>
+        <f t="shared" ref="J5:J29" si="5">I5*$C$2</f>
+        <v>57.665537199765673</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2451,24 +3636,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>278592</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F6,2) + POWER($F$2 * F6,2))</f>
-        <v>1114176</v>
-      </c>
-      <c r="H6" s="2">
-        <f>POWER($F$2*F6,2)</f>
-        <v>262144</v>
+        <v>65536</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.23528060198747774</v>
+        <f t="shared" si="4"/>
+        <v>0.23524006432345509</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>67.851161123556778</v>
+        <f t="shared" si="5"/>
+        <v>67.839470709855277</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2484,24 +3669,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>1065216</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F7,2) + POWER($F$2 * F7,2))</f>
-        <v>4260096</v>
-      </c>
-      <c r="H7" s="2">
-        <f>POWER($F$2*F7,2)</f>
-        <v>1048576</v>
+        <v>262144</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2461390541433808</v>
+        <f t="shared" si="4"/>
+        <v>0.24609468877673635</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
-        <v>70.98256499008474</v>
+        <f t="shared" si="5"/>
+        <v>70.96977072819034</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2517,24 +3702,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>4211712</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G8" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F8,2) + POWER($F$2 * F8,2))</f>
-        <v>16843776</v>
-      </c>
-      <c r="H8" s="2">
-        <f>POWER($F$2*F8,2)</f>
-        <v>4194304</v>
+        <v>1048576</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24901209799987842</v>
+        <f t="shared" si="4"/>
+        <v>0.24896669097982008</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
-        <v>71.811104869596946</v>
+        <f t="shared" si="5"/>
+        <v>71.798010211524442</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2550,24 +3735,24 @@
         <v>5</v>
       </c>
       <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>16797696</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="G9" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F9,2) + POWER($F$2 * F9,2))</f>
-        <v>67178496</v>
-      </c>
-      <c r="H9" s="2">
-        <f>POWER($F$2*F9,2)</f>
-        <v>16777216</v>
+        <v>4194304</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24974086945917931</v>
+        <f t="shared" si="4"/>
+        <v>0.24969519629358694</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
-        <v>72.021270898115972</v>
+        <f t="shared" si="5"/>
+        <v>72.008099487929783</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2583,24 +3768,24 @@
         <v>6</v>
       </c>
       <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>67141632</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="G10" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F10,2) + POWER($F$2 * F10,2))</f>
-        <v>268517376</v>
-      </c>
-      <c r="H10" s="2">
-        <f>POWER($F$2*F10,2)</f>
-        <v>67108864</v>
+        <v>16777216</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2499237293306486</v>
+        <f t="shared" si="4"/>
+        <v>0.24987798926305516</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
-        <v>72.074004759289764</v>
+        <f t="shared" si="5"/>
+        <v>72.060814055636897</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2616,24 +3801,24 @@
         <v>7</v>
       </c>
       <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>268517376</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="G11" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F11,2) + POWER($F$2 * F11,2))</f>
-        <v>1073872896</v>
-      </c>
-      <c r="H11" s="2">
-        <f>POWER($F$2*F11,2)</f>
-        <v>268435456</v>
+        <v>67108864</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24996948614671061</v>
+        <f t="shared" si="4"/>
+        <v>0.2499237293306486</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
-        <v>72.087200292932991</v>
+        <f t="shared" si="5"/>
+        <v>72.074004759289764</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2649,24 +3834,24 @@
         <v>8</v>
       </c>
       <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>1074020352</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="G12" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F12,2) + POWER($F$2 * F12,2))</f>
-        <v>4295294976</v>
-      </c>
-      <c r="H12" s="2">
-        <f>POWER($F$2*F12,2)</f>
-        <v>1073741824</v>
+        <v>268435456</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998092796875238</v>
+        <f t="shared" si="4"/>
+        <v>0.2499351669641359</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
-        <v>72.090499931340688</v>
+        <f t="shared" si="5"/>
+        <v>72.077303189785368</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2674,24 +3859,24 @@
         <v>9</v>
       </c>
       <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>4296032256</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>512</v>
-      </c>
-      <c r="G13" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F13,2) + POWER($F$2 * F13,2))</f>
-        <v>17180983296</v>
-      </c>
-      <c r="H13" s="2">
-        <f>POWER($F$2*F13,2)</f>
-        <v>4294967296</v>
+        <v>1073741824</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2499837885879288</v>
+        <f t="shared" si="4"/>
+        <v>0.24993802653608382</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091324888141258</v>
+        <f t="shared" si="5"/>
+        <v>72.078127844581999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2699,24 +3884,24 @@
         <v>10</v>
       </c>
       <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>17184079872</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="G14" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F14,2) + POWER($F$2 * F14,2))</f>
-        <v>68723736576</v>
-      </c>
-      <c r="H14" s="2">
-        <f>POWER($F$2*F14,2)</f>
-        <v>17179869184</v>
+        <v>4294967296</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998450375295264</v>
+        <f t="shared" si="4"/>
+        <v>0.2499387414392949</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
-        <v>72.0915311302915</v>
+        <f t="shared" si="5"/>
+        <v>72.078334011229629</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,24 +3909,24 @@
         <v>11</v>
       </c>
       <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>68736270336</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>2048</v>
-      </c>
-      <c r="G15" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F15,2) + POWER($F$2 * F15,2))</f>
-        <v>274894749696</v>
-      </c>
-      <c r="H15" s="2">
-        <f>POWER($F$2*F15,2)</f>
-        <v>68719476736</v>
+        <v>17179869184</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998468254484796</v>
+        <f t="shared" si="4"/>
+        <v>0.24993892016573671</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091582691013443</v>
+        <f t="shared" si="5"/>
+        <v>72.078385553075819</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2749,24 +3934,24 @@
         <v>12</v>
       </c>
       <c r="F16" s="8">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>274945032192</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>4096</v>
-      </c>
-      <c r="G16" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F16,2) + POWER($F$2 * F16,2))</f>
-        <v>1099578802176</v>
-      </c>
-      <c r="H16" s="2">
-        <f>POWER($F$2*F16,2)</f>
-        <v>274877906944</v>
+        <v>68719476736</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998472724286175</v>
+        <f t="shared" si="4"/>
+        <v>0.24993896484738709</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091595581205439</v>
+        <f t="shared" si="5"/>
+        <v>72.078398438548888</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
@@ -2774,24 +3959,24 @@
         <v>13</v>
       </c>
       <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>1099780079616</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>8192</v>
-      </c>
-      <c r="G17" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F17,2) + POWER($F$2 * F17,2))</f>
-        <v>4398315012096</v>
-      </c>
-      <c r="H17" s="2">
-        <f>POWER($F$2*F17,2)</f>
-        <v>1099511627776</v>
+        <v>274877906944</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998473841736771</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897601780218</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091598803754167</v>
+        <f t="shared" si="5"/>
+        <v>72.078401659917873</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
@@ -2799,24 +3984,24 @@
         <v>14</v>
       </c>
       <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>4399120269312</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="G18" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F18,2) + POWER($F$2 * F18,2))</f>
-        <v>17593259851776</v>
-      </c>
-      <c r="H18" s="2">
-        <f>POWER($F$2*F18,2)</f>
-        <v>4398046511104</v>
+        <v>1099511627776</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474121099434</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897881040611</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599609391395</v>
+        <f t="shared" si="5"/>
+        <v>72.078402465260154</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
@@ -2824,24 +4009,24 @@
         <v>15</v>
       </c>
       <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>17596481028096</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="1"/>
-        <v>32768</v>
-      </c>
-      <c r="G19" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F19,2) + POWER($F$2 * F19,2))</f>
-        <v>70373039210496</v>
-      </c>
-      <c r="H19" s="2">
-        <f>POWER($F$2*F19,2)</f>
-        <v>17592186044416</v>
+        <v>4398046511104</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474190940101</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897950855712</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599810800702</v>
+        <f t="shared" si="5"/>
+        <v>72.078402666595736</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
@@ -2849,24 +4034,24 @@
         <v>16</v>
       </c>
       <c r="F20" s="8">
+        <f t="shared" si="2"/>
+        <v>65536</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>70385924063232</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="G20" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F20,2) + POWER($F$2 * F20,2))</f>
-        <v>281492156645376</v>
-      </c>
-      <c r="H20" s="2">
-        <f>POWER($F$2*F20,2)</f>
-        <v>70368744177664</v>
+        <v>17592186044416</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474208400268</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897968309486</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599861153028</v>
+        <f t="shared" si="5"/>
+        <v>72.078402716929631</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
@@ -2874,24 +4059,24 @@
         <v>17</v>
       </c>
       <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>281543696203776</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>131072</v>
-      </c>
-      <c r="G21" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F21,2) + POWER($F$2 * F21,2))</f>
-        <v>1125968626384896</v>
-      </c>
-      <c r="H21" s="2">
-        <f>POWER($F$2*F21,2)</f>
-        <v>281474976710656</v>
+        <v>70368744177664</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474212765309</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897972672929</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599873741117</v>
+        <f t="shared" si="5"/>
+        <v>72.078402729513101</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
@@ -2899,24 +4084,24 @@
         <v>18</v>
       </c>
       <c r="F22" s="8">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>1126174784765952</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>262144</v>
-      </c>
-      <c r="G22" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F22,2) + POWER($F$2 * F22,2))</f>
-        <v>4503874505342976</v>
-      </c>
-      <c r="H22" s="2">
-        <f>POWER($F$2*F22,2)</f>
-        <v>1125899906842624</v>
+        <v>281474976710656</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2499847421385657</v>
+        <f t="shared" si="4"/>
+        <v>0.2499389797376379</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599876888139</v>
+        <f t="shared" si="5"/>
+        <v>72.078402732658972</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
@@ -2924,24 +4109,24 @@
         <v>19</v>
       </c>
       <c r="F23" s="8">
+        <f t="shared" si="2"/>
+        <v>524288</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>4504699139014656</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="1"/>
-        <v>524288</v>
-      </c>
-      <c r="G23" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F23,2) + POWER($F$2 * F23,2))</f>
-        <v>1.8015498021175296E+16</v>
-      </c>
-      <c r="H23" s="2">
-        <f>POWER($F$2*F23,2)</f>
-        <v>4503599627370496</v>
+        <v>1125899906842624</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474214129385</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897974036505</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599877674895</v>
+        <f t="shared" si="5"/>
+        <v>72.078402733445444</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
@@ -2949,24 +4134,24 @@
         <v>20</v>
       </c>
       <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>1048576</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8018796556009472E+16</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="1"/>
-        <v>1048576</v>
-      </c>
-      <c r="G24" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F24,2) + POWER($F$2 * F24,2))</f>
-        <v>7.2061992084504576E+16</v>
-      </c>
-      <c r="H24" s="2">
-        <f>POWER($F$2*F24,2)</f>
-        <v>1.8014398509481984E+16</v>
+        <v>4503599627370496</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474214197589</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897974104684</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599877871573</v>
+        <f t="shared" si="5"/>
+        <v>72.078402733642051</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
@@ -2974,24 +4159,24 @@
         <v>21</v>
       </c>
       <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>2097152</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2075186223988736E+16</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="1"/>
-        <v>2097152</v>
-      </c>
-      <c r="G25" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F25,2) + POWER($F$2 * F25,2))</f>
-        <v>2.882479683378217E+17</v>
-      </c>
-      <c r="H25" s="2">
-        <f>POWER($F$2*F25,2)</f>
-        <v>7.2057594037927936E+16</v>
+        <v>1.8014398509481984E+16</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474214214639</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897974121729</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599877920743</v>
+        <f t="shared" si="5"/>
+        <v>72.078402733691206</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
@@ -2999,24 +4184,24 @@
         <v>22</v>
       </c>
       <c r="F26" s="8">
+        <f t="shared" si="2"/>
+        <v>4194304</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8830074489590579E+17</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="1"/>
-        <v>4194304</v>
-      </c>
-      <c r="G26" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F26,2) + POWER($F$2 * F26,2))</f>
-        <v>1.1529918733510902E+18</v>
-      </c>
-      <c r="H26" s="2">
-        <f>POWER($F$2*F26,2)</f>
-        <v>2.8823037615171174E+17</v>
+        <v>7.2057594037927936E+16</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474214218902</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897974125989</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599877933035</v>
+        <f t="shared" si="5"/>
+        <v>72.078402733703498</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
@@ -3024,24 +4209,24 @@
         <v>23</v>
       </c>
       <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>8388608</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="3"/>
+        <v>1.153202979583574E+18</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="1"/>
-        <v>8388608</v>
-      </c>
-      <c r="G27" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F27,2) + POWER($F$2 * F27,2))</f>
-        <v>4.6119674934041641E+18</v>
-      </c>
-      <c r="H27" s="2">
-        <f>POWER($F$2*F27,2)</f>
-        <v>1.152921504606847E+18</v>
+        <v>2.8823037615171174E+17</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474214219968</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897974127055</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599877936119</v>
+        <f t="shared" si="5"/>
+        <v>72.078402733706568</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
@@ -3049,24 +4234,24 @@
         <v>24</v>
       </c>
       <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>16777216</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6128119183342469E+18</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="1"/>
-        <v>16777216</v>
-      </c>
-      <c r="G28" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F28,2) + POWER($F$2 * F28,2))</f>
-        <v>1.844786997361646E+19</v>
-      </c>
-      <c r="H28" s="2">
-        <f>POWER($F$2*F28,2)</f>
-        <v>4.6116860184273879E+18</v>
+        <v>1.152921504606847E+18</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474214220234</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897974127322</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599877936886</v>
+        <f t="shared" si="5"/>
+        <v>72.078402733707335</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
@@ -3074,71 +4259,71 @@
         <v>25</v>
       </c>
       <c r="F29" s="8">
+        <f t="shared" si="2"/>
+        <v>33554432</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8451247673336938E+19</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="1"/>
-        <v>33554432</v>
-      </c>
-      <c r="G29" s="2">
-        <f>4*(POWER($F$2,2)+POWER(F29,2) + POWER($F$2 * F29,2))</f>
-        <v>7.3791479894465642E+19</v>
-      </c>
-      <c r="H29" s="2">
-        <f>POWER($F$2*F29,2)</f>
-        <v>1.8446744073709552E+19</v>
+        <v>4.6116860184273879E+18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24998474214220301</v>
+        <f t="shared" si="4"/>
+        <v>0.24993897974127388</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
-        <v>72.091599877937071</v>
+        <f t="shared" si="5"/>
+        <v>72.078402733707534</v>
       </c>
     </row>
     <row r="33" spans="4:19" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="L33" s="16" t="s">
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="L33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
     </row>
     <row r="34" spans="4:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="15"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="19" t="s">
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q34" s="19" t="s">
+      <c r="Q34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
     </row>
     <row r="35" spans="4:19" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="s">
@@ -3150,16 +4335,16 @@
       <c r="F35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
@@ -3174,16 +4359,16 @@
       <c r="O35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="17" t="s">
+      <c r="P35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="17" t="s">
+      <c r="Q35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R35" s="17" t="s">
+      <c r="R35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="17" t="s">
+      <c r="S35" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3199,19 +4384,19 @@
         <f>POWER(2,D36)</f>
         <v>1</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="19">
         <f xml:space="preserve"> 4*(         POWER(F36,2)            +                POWER(E36,2)              +             POWER(F36 *E36,2)                    )</f>
         <v>12</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <f>POWER(E36*F36,2)</f>
         <v>1</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="19">
         <f>H36/G36</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="19">
         <f>I36*$C$2</f>
         <v>24.032</v>
       </c>
@@ -3229,19 +4414,19 @@
         <f>POWER(2,L36)</f>
         <v>33554432</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="19">
         <f xml:space="preserve"> 4*(         POWER(O36,2)            +                POWER(N36,2)              +             POWER(O36 *N36,2)                    )</f>
         <v>9007199254740996</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="19">
         <f>POWER(N36*O36,2)</f>
         <v>1125899906842624</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="19">
         <f>Q36/P36</f>
         <v>0.12499999999999994</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="19">
         <f>R36*$C$2</f>
         <v>36.047999999999988</v>
       </c>
@@ -3251,27 +4436,27 @@
         <v>1</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" ref="E37:E61" si="4">POWER(2,D37)</f>
+        <f t="shared" ref="E37:E61" si="6">POWER(2,D37)</f>
         <v>2</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" ref="F37:F61" si="5">POWER(2,D37)</f>
+        <f t="shared" ref="F37:F61" si="7">POWER(2,D37)</f>
         <v>2</v>
       </c>
-      <c r="G37" s="21">
-        <f t="shared" ref="G37:G61" si="6" xml:space="preserve"> 4*(         POWER(F37,2)            +                POWER(E37,2)              +             POWER(F37 *E37,2)                    )</f>
+      <c r="G37" s="19">
+        <f t="shared" ref="G37:G61" si="8" xml:space="preserve"> 4*(         POWER(F37,2)            +                POWER(E37,2)              +             POWER(F37 *E37,2)                    )</f>
         <v>96</v>
       </c>
-      <c r="H37" s="21">
-        <f t="shared" ref="H37:H61" si="7">POWER(E37*F37,2)</f>
+      <c r="H37" s="19">
+        <f t="shared" ref="H37:H61" si="9">POWER(E37*F37,2)</f>
         <v>16</v>
       </c>
-      <c r="I37" s="21">
-        <f t="shared" ref="I37:I61" si="8">H37/G37</f>
+      <c r="I37" s="19">
+        <f t="shared" ref="I37:I61" si="10">H37/G37</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J37" s="21">
-        <f t="shared" ref="J37:J61" si="9">I37*$C$2</f>
+      <c r="J37" s="19">
+        <f t="shared" ref="J37:J61" si="11">I37*$C$2</f>
         <v>48.064</v>
       </c>
       <c r="L37" s="8">
@@ -3281,27 +4466,27 @@
         <v>1</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" ref="N37:N61" si="10">POWER(2,M37)</f>
+        <f t="shared" ref="N37:N61" si="12">POWER(2,M37)</f>
         <v>2</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" ref="O37:O61" si="11">POWER(2,L37)</f>
+        <f t="shared" ref="O37:O61" si="13">POWER(2,L37)</f>
         <v>16777216</v>
       </c>
-      <c r="P37" s="21">
-        <f t="shared" ref="P37:P61" si="12" xml:space="preserve"> 4*(         POWER(O37,2)            +                POWER(N37,2)              +             POWER(O37 *N37,2)                    )</f>
+      <c r="P37" s="19">
+        <f t="shared" ref="P37:P61" si="14" xml:space="preserve"> 4*(         POWER(O37,2)            +                POWER(N37,2)              +             POWER(O37 *N37,2)                    )</f>
         <v>5629499534213136</v>
       </c>
-      <c r="Q37" s="21">
-        <f t="shared" ref="Q37:Q61" si="13">POWER(N37*O37,2)</f>
+      <c r="Q37" s="19">
+        <f t="shared" ref="Q37:Q61" si="15">POWER(N37*O37,2)</f>
         <v>1125899906842624</v>
       </c>
-      <c r="R37" s="21">
-        <f t="shared" ref="R37:R61" si="14">Q37/P37</f>
+      <c r="R37" s="19">
+        <f t="shared" ref="R37:R61" si="16">Q37/P37</f>
         <v>0.19999999999999943</v>
       </c>
-      <c r="S37" s="21">
-        <f t="shared" ref="S37:S61" si="15">R37*$C$2</f>
+      <c r="S37" s="19">
+        <f t="shared" ref="S37:S61" si="17">R37*$C$2</f>
         <v>57.676799999999837</v>
       </c>
     </row>
@@ -3310,27 +4495,27 @@
         <v>2</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G38" s="21">
-        <f t="shared" si="6"/>
+      <c r="G38" s="19">
+        <f t="shared" si="8"/>
         <v>1152</v>
       </c>
-      <c r="H38" s="21">
-        <f t="shared" si="7"/>
+      <c r="H38" s="19">
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
-      <c r="I38" s="21">
-        <f t="shared" si="8"/>
+      <c r="I38" s="19">
+        <f t="shared" si="10"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J38" s="21">
-        <f t="shared" si="9"/>
+      <c r="J38" s="19">
+        <f t="shared" si="11"/>
         <v>64.085333333333338</v>
       </c>
       <c r="L38" s="8">
@@ -3340,27 +4525,27 @@
         <v>2</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8388608</v>
       </c>
-      <c r="P38" s="21">
-        <f t="shared" si="12"/>
+      <c r="P38" s="19">
+        <f t="shared" si="14"/>
         <v>4785074604081216</v>
       </c>
-      <c r="Q38" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q38" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R38" s="21">
-        <f t="shared" si="14"/>
+      <c r="R38" s="19">
+        <f t="shared" si="16"/>
         <v>0.23529411764705568</v>
       </c>
-      <c r="S38" s="21">
-        <f t="shared" si="15"/>
+      <c r="S38" s="19">
+        <f t="shared" si="17"/>
         <v>67.855058823528509</v>
       </c>
     </row>
@@ -3369,27 +4554,27 @@
         <v>3</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G39" s="21">
-        <f t="shared" si="6"/>
+      <c r="G39" s="19">
+        <f t="shared" si="8"/>
         <v>16896</v>
       </c>
-      <c r="H39" s="21">
-        <f t="shared" si="7"/>
+      <c r="H39" s="19">
+        <f t="shared" si="9"/>
         <v>4096</v>
       </c>
-      <c r="I39" s="21">
-        <f t="shared" si="8"/>
+      <c r="I39" s="19">
+        <f t="shared" si="10"/>
         <v>0.24242424242424243</v>
       </c>
-      <c r="J39" s="21">
-        <f t="shared" si="9"/>
+      <c r="J39" s="19">
+        <f t="shared" si="11"/>
         <v>69.911272727272731</v>
       </c>
       <c r="L39" s="8">
@@ -3399,27 +4584,27 @@
         <v>3</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4194304</v>
       </c>
-      <c r="P39" s="21">
-        <f t="shared" si="12"/>
+      <c r="P39" s="19">
+        <f t="shared" si="14"/>
         <v>4573968371548416</v>
       </c>
-      <c r="Q39" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q39" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R39" s="21">
-        <f t="shared" si="14"/>
+      <c r="R39" s="19">
+        <f t="shared" si="16"/>
         <v>0.24615384615383237</v>
       </c>
-      <c r="S39" s="21">
-        <f t="shared" si="15"/>
+      <c r="S39" s="19">
+        <f t="shared" si="17"/>
         <v>70.986830769226799</v>
       </c>
     </row>
@@ -3428,27 +4613,27 @@
         <v>4</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="G40" s="21">
-        <f t="shared" si="6"/>
+      <c r="G40" s="19">
+        <f t="shared" si="8"/>
         <v>264192</v>
       </c>
-      <c r="H40" s="21">
-        <f t="shared" si="7"/>
+      <c r="H40" s="19">
+        <f t="shared" si="9"/>
         <v>65536</v>
       </c>
-      <c r="I40" s="21">
-        <f t="shared" si="8"/>
+      <c r="I40" s="19">
+        <f t="shared" si="10"/>
         <v>0.24806201550387597</v>
       </c>
-      <c r="J40" s="21">
-        <f t="shared" si="9"/>
+      <c r="J40" s="19">
+        <f t="shared" si="11"/>
         <v>71.537116279069764</v>
       </c>
       <c r="L40" s="8">
@@ -3458,27 +4643,27 @@
         <v>4</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2097152</v>
       </c>
-      <c r="P40" s="21">
-        <f t="shared" si="12"/>
+      <c r="P40" s="19">
+        <f t="shared" si="14"/>
         <v>4521191813415936</v>
       </c>
-      <c r="Q40" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q40" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R40" s="21">
-        <f t="shared" si="14"/>
+      <c r="R40" s="19">
+        <f t="shared" si="16"/>
         <v>0.24902723735402921</v>
       </c>
-      <c r="S40" s="21">
-        <f t="shared" si="15"/>
+      <c r="S40" s="19">
+        <f t="shared" si="17"/>
         <v>71.815470817104369</v>
       </c>
     </row>
@@ -3487,27 +4672,27 @@
         <v>5</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="G41" s="21">
-        <f t="shared" si="6"/>
+      <c r="G41" s="19">
+        <f t="shared" si="8"/>
         <v>4202496</v>
       </c>
-      <c r="H41" s="21">
-        <f t="shared" si="7"/>
+      <c r="H41" s="19">
+        <f t="shared" si="9"/>
         <v>1048576</v>
       </c>
-      <c r="I41" s="21">
-        <f t="shared" si="8"/>
+      <c r="I41" s="19">
+        <f t="shared" si="10"/>
         <v>0.24951267056530213</v>
       </c>
-      <c r="J41" s="21">
-        <f t="shared" si="9"/>
+      <c r="J41" s="19">
+        <f t="shared" si="11"/>
         <v>71.955461988304094</v>
       </c>
       <c r="L41" s="8">
@@ -3517,27 +4702,27 @@
         <v>5</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1048576</v>
       </c>
-      <c r="P41" s="21">
-        <f t="shared" si="12"/>
+      <c r="P41" s="19">
+        <f t="shared" si="14"/>
         <v>4507997673885696</v>
       </c>
-      <c r="Q41" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q41" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R41" s="21">
-        <f t="shared" si="14"/>
+      <c r="R41" s="19">
+        <f t="shared" si="16"/>
         <v>0.24975609756074868</v>
       </c>
-      <c r="S41" s="21">
-        <f t="shared" si="15"/>
+      <c r="S41" s="19">
+        <f t="shared" si="17"/>
         <v>72.025662438958946</v>
       </c>
     </row>
@@ -3546,27 +4731,27 @@
         <v>6</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="G42" s="21">
-        <f t="shared" si="6"/>
+      <c r="G42" s="19">
+        <f t="shared" si="8"/>
         <v>67141632</v>
       </c>
-      <c r="H42" s="21">
-        <f t="shared" si="7"/>
+      <c r="H42" s="19">
+        <f t="shared" si="9"/>
         <v>16777216</v>
       </c>
-      <c r="I42" s="21">
-        <f t="shared" si="8"/>
+      <c r="I42" s="19">
+        <f t="shared" si="10"/>
         <v>0.24987798926305516</v>
       </c>
-      <c r="J42" s="21">
-        <f t="shared" si="9"/>
+      <c r="J42" s="19">
+        <f t="shared" si="11"/>
         <v>72.060814055636897</v>
       </c>
       <c r="L42" s="8">
@@ -3576,27 +4761,27 @@
         <v>6</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>524288</v>
       </c>
-      <c r="P42" s="21">
-        <f t="shared" si="12"/>
+      <c r="P42" s="19">
+        <f t="shared" si="14"/>
         <v>4504699139014656</v>
       </c>
-      <c r="Q42" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q42" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R42" s="21">
-        <f t="shared" si="14"/>
+      <c r="R42" s="19">
+        <f t="shared" si="16"/>
         <v>0.24993897974036505</v>
       </c>
-      <c r="S42" s="21">
-        <f t="shared" si="15"/>
+      <c r="S42" s="19">
+        <f t="shared" si="17"/>
         <v>72.078402733445444</v>
       </c>
     </row>
@@ -3605,27 +4790,27 @@
         <v>7</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="G43" s="21">
-        <f t="shared" si="6"/>
+      <c r="G43" s="19">
+        <f t="shared" si="8"/>
         <v>1073872896</v>
       </c>
-      <c r="H43" s="21">
-        <f t="shared" si="7"/>
+      <c r="H43" s="19">
+        <f t="shared" si="9"/>
         <v>268435456</v>
       </c>
-      <c r="I43" s="21">
-        <f t="shared" si="8"/>
+      <c r="I43" s="19">
+        <f t="shared" si="10"/>
         <v>0.24996948614671061</v>
       </c>
-      <c r="J43" s="21">
-        <f t="shared" si="9"/>
+      <c r="J43" s="19">
+        <f t="shared" si="11"/>
         <v>72.087200292932991</v>
       </c>
       <c r="L43" s="8">
@@ -3635,27 +4820,27 @@
         <v>7</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>262144</v>
       </c>
-      <c r="P43" s="21">
-        <f t="shared" si="12"/>
+      <c r="P43" s="19">
+        <f t="shared" si="14"/>
         <v>4503874505342976</v>
       </c>
-      <c r="Q43" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q43" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R43" s="21">
-        <f t="shared" si="14"/>
+      <c r="R43" s="19">
+        <f t="shared" si="16"/>
         <v>0.2499847421385657</v>
       </c>
-      <c r="S43" s="21">
-        <f t="shared" si="15"/>
+      <c r="S43" s="19">
+        <f t="shared" si="17"/>
         <v>72.091599876888139</v>
       </c>
     </row>
@@ -3664,27 +4849,27 @@
         <v>8</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
-      <c r="G44" s="21">
-        <f t="shared" si="6"/>
+      <c r="G44" s="19">
+        <f t="shared" si="8"/>
         <v>17180393472</v>
       </c>
-      <c r="H44" s="21">
-        <f t="shared" si="7"/>
+      <c r="H44" s="19">
+        <f t="shared" si="9"/>
         <v>4294967296</v>
       </c>
-      <c r="I44" s="21">
-        <f t="shared" si="8"/>
+      <c r="I44" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999237083829229</v>
       </c>
-      <c r="J44" s="21">
-        <f t="shared" si="9"/>
+      <c r="J44" s="19">
+        <f t="shared" si="11"/>
         <v>72.093799871830086</v>
       </c>
       <c r="L44" s="8">
@@ -3694,27 +4879,27 @@
         <v>8</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>131072</v>
       </c>
-      <c r="P44" s="21">
-        <f t="shared" si="12"/>
+      <c r="P44" s="19">
+        <f t="shared" si="14"/>
         <v>4503668347109376</v>
       </c>
-      <c r="Q44" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q44" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R44" s="21">
-        <f t="shared" si="14"/>
+      <c r="R44" s="19">
+        <f t="shared" si="16"/>
         <v>0.24999618534638968</v>
       </c>
-      <c r="S44" s="21">
-        <f t="shared" si="15"/>
+      <c r="S44" s="19">
+        <f t="shared" si="17"/>
         <v>72.094899914933251</v>
       </c>
     </row>
@@ -3723,27 +4908,27 @@
         <v>9</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>512</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
-      <c r="G45" s="21">
-        <f t="shared" si="6"/>
+      <c r="G45" s="19">
+        <f t="shared" si="8"/>
         <v>274880004096</v>
       </c>
-      <c r="H45" s="21">
-        <f t="shared" si="7"/>
+      <c r="H45" s="19">
+        <f t="shared" si="9"/>
         <v>68719476736</v>
       </c>
-      <c r="I45" s="21">
-        <f t="shared" si="8"/>
+      <c r="I45" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999809266591899</v>
       </c>
-      <c r="J45" s="21">
-        <f t="shared" si="9"/>
+      <c r="J45" s="19">
+        <f t="shared" si="11"/>
         <v>72.09544995536838</v>
       </c>
       <c r="L45" s="8">
@@ -3753,27 +4938,27 @@
         <v>9</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>65536</v>
       </c>
-      <c r="P45" s="21">
-        <f t="shared" si="12"/>
+      <c r="P45" s="19">
+        <f t="shared" si="14"/>
         <v>4503616808288256</v>
       </c>
-      <c r="Q45" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q45" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R45" s="21">
-        <f t="shared" si="14"/>
+      <c r="R45" s="19">
+        <f t="shared" si="16"/>
         <v>0.24999904627111436</v>
       </c>
-      <c r="S45" s="21">
-        <f t="shared" si="15"/>
+      <c r="S45" s="19">
+        <f t="shared" si="17"/>
         <v>72.095724959849051</v>
       </c>
     </row>
@@ -3782,27 +4967,27 @@
         <v>10</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1024</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
-      <c r="G46" s="21">
-        <f t="shared" si="6"/>
+      <c r="G46" s="19">
+        <f t="shared" si="8"/>
         <v>4398054899712</v>
       </c>
-      <c r="H46" s="21">
-        <f t="shared" si="7"/>
+      <c r="H46" s="19">
+        <f t="shared" si="9"/>
         <v>1099511627776</v>
       </c>
-      <c r="I46" s="21">
-        <f t="shared" si="8"/>
+      <c r="I46" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999952316375129</v>
       </c>
-      <c r="J46" s="21">
-        <f t="shared" si="9"/>
+      <c r="J46" s="19">
+        <f t="shared" si="11"/>
         <v>72.095862488055261</v>
       </c>
       <c r="L46" s="8">
@@ -3812,27 +4997,27 @@
         <v>10</v>
       </c>
       <c r="N46" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1024</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32768</v>
       </c>
-      <c r="P46" s="21">
-        <f t="shared" si="12"/>
+      <c r="P46" s="19">
+        <f t="shared" si="14"/>
         <v>4503603926532096</v>
       </c>
-      <c r="Q46" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q46" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R46" s="21">
-        <f t="shared" si="14"/>
+      <c r="R46" s="19">
+        <f t="shared" si="16"/>
         <v>0.24999976134881807</v>
       </c>
-      <c r="S46" s="21">
-        <f t="shared" si="15"/>
+      <c r="S46" s="19">
+        <f t="shared" si="17"/>
         <v>72.095931176817558</v>
       </c>
     </row>
@@ -3841,27 +5026,27 @@
         <v>11</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
-      <c r="G47" s="21">
-        <f t="shared" si="6"/>
+      <c r="G47" s="19">
+        <f t="shared" si="8"/>
         <v>70368777732096</v>
       </c>
-      <c r="H47" s="21">
-        <f t="shared" si="7"/>
+      <c r="H47" s="19">
+        <f t="shared" si="9"/>
         <v>17592186044416</v>
       </c>
-      <c r="I47" s="21">
-        <f t="shared" si="8"/>
+      <c r="I47" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999988079076729</v>
       </c>
-      <c r="J47" s="21">
-        <f t="shared" si="9"/>
+      <c r="J47" s="19">
+        <f t="shared" si="11"/>
         <v>72.095965621964638</v>
       </c>
       <c r="L47" s="8">
@@ -3871,27 +5056,27 @@
         <v>11</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2048</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16384</v>
       </c>
-      <c r="P47" s="21">
-        <f t="shared" si="12"/>
+      <c r="P47" s="19">
+        <f t="shared" si="14"/>
         <v>4503600717889536</v>
       </c>
-      <c r="Q47" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q47" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R47" s="21">
-        <f t="shared" si="14"/>
+      <c r="R47" s="19">
+        <f t="shared" si="16"/>
         <v>0.2499999394640473</v>
       </c>
-      <c r="S47" s="21">
-        <f t="shared" si="15"/>
+      <c r="S47" s="19">
+        <f t="shared" si="17"/>
         <v>72.095982542399824</v>
       </c>
     </row>
@@ -3900,27 +5085,27 @@
         <v>12</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4096</v>
       </c>
-      <c r="G48" s="21">
-        <f t="shared" si="6"/>
+      <c r="G48" s="19">
+        <f t="shared" si="8"/>
         <v>1125900041060352</v>
       </c>
-      <c r="H48" s="21">
-        <f t="shared" si="7"/>
+      <c r="H48" s="19">
+        <f t="shared" si="9"/>
         <v>281474976710656</v>
       </c>
-      <c r="I48" s="21">
-        <f t="shared" si="8"/>
+      <c r="I48" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999997019768117</v>
       </c>
-      <c r="J48" s="21">
-        <f t="shared" si="9"/>
+      <c r="J48" s="19">
+        <f t="shared" si="11"/>
         <v>72.095991405488093</v>
       </c>
       <c r="L48" s="8">
@@ -3930,27 +5115,27 @@
         <v>12</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4096</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8192</v>
       </c>
-      <c r="P48" s="21">
-        <f t="shared" si="12"/>
+      <c r="P48" s="19">
+        <f t="shared" si="14"/>
         <v>4503599962914816</v>
       </c>
-      <c r="Q48" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q48" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R48" s="21">
-        <f t="shared" si="14"/>
+      <c r="R48" s="19">
+        <f t="shared" si="16"/>
         <v>0.2499999813735499</v>
       </c>
-      <c r="S48" s="21">
-        <f t="shared" si="15"/>
+      <c r="S48" s="19">
+        <f t="shared" si="17"/>
         <v>72.095994628429821</v>
       </c>
     </row>
@@ -3959,27 +5144,27 @@
         <v>13</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8192</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8192</v>
       </c>
-      <c r="G49" s="21">
-        <f t="shared" si="6"/>
+      <c r="G49" s="19">
+        <f t="shared" si="8"/>
         <v>1.8014399046352896E+16</v>
       </c>
-      <c r="H49" s="21">
-        <f t="shared" si="7"/>
+      <c r="H49" s="19">
+        <f t="shared" si="9"/>
         <v>4503599627370496</v>
       </c>
-      <c r="I49" s="21">
-        <f t="shared" si="8"/>
+      <c r="I49" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999254941963</v>
       </c>
-      <c r="J49" s="21">
-        <f t="shared" si="9"/>
+      <c r="J49" s="19">
+        <f t="shared" si="11"/>
         <v>72.095997851371834</v>
       </c>
       <c r="L49" s="8">
@@ -3989,27 +5174,27 @@
         <v>13</v>
       </c>
       <c r="N49" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8192</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4096</v>
       </c>
-      <c r="P49" s="21">
-        <f t="shared" si="12"/>
+      <c r="P49" s="19">
+        <f t="shared" si="14"/>
         <v>4503599962914816</v>
       </c>
-      <c r="Q49" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q49" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R49" s="21">
-        <f t="shared" si="14"/>
+      <c r="R49" s="19">
+        <f t="shared" si="16"/>
         <v>0.2499999813735499</v>
       </c>
-      <c r="S49" s="21">
-        <f t="shared" si="15"/>
+      <c r="S49" s="19">
+        <f t="shared" si="17"/>
         <v>72.095994628429821</v>
       </c>
     </row>
@@ -4018,27 +5203,27 @@
         <v>14</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16384</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16384</v>
       </c>
-      <c r="G50" s="21">
-        <f t="shared" si="6"/>
+      <c r="G50" s="19">
+        <f t="shared" si="8"/>
         <v>2.8823037829919539E+17</v>
       </c>
-      <c r="H50" s="21">
-        <f t="shared" si="7"/>
+      <c r="H50" s="19">
+        <f t="shared" si="9"/>
         <v>7.2057594037927936E+16</v>
       </c>
-      <c r="I50" s="21">
-        <f t="shared" si="8"/>
+      <c r="I50" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999813735485</v>
       </c>
-      <c r="J50" s="21">
-        <f t="shared" si="9"/>
+      <c r="J50" s="19">
+        <f t="shared" si="11"/>
         <v>72.09599946284294</v>
       </c>
       <c r="L50" s="8">
@@ -4048,27 +5233,27 @@
         <v>14</v>
       </c>
       <c r="N50" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16384</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2048</v>
       </c>
-      <c r="P50" s="21">
-        <f t="shared" si="12"/>
+      <c r="P50" s="19">
+        <f t="shared" si="14"/>
         <v>4503600717889536</v>
       </c>
-      <c r="Q50" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q50" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R50" s="21">
-        <f t="shared" si="14"/>
+      <c r="R50" s="19">
+        <f t="shared" si="16"/>
         <v>0.2499999394640473</v>
       </c>
-      <c r="S50" s="21">
-        <f t="shared" si="15"/>
+      <c r="S50" s="19">
+        <f t="shared" si="17"/>
         <v>72.095982542399824</v>
       </c>
     </row>
@@ -4077,27 +5262,27 @@
         <v>15</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32768</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32768</v>
       </c>
-      <c r="G51" s="21">
-        <f t="shared" si="6"/>
+      <c r="G51" s="19">
+        <f t="shared" si="8"/>
         <v>4.6116860270173225E+18</v>
       </c>
-      <c r="H51" s="21">
-        <f t="shared" si="7"/>
+      <c r="H51" s="19">
+        <f t="shared" si="9"/>
         <v>1.152921504606847E+18</v>
       </c>
-      <c r="I51" s="21">
-        <f t="shared" si="8"/>
+      <c r="I51" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999953433871</v>
       </c>
-      <c r="J51" s="21">
-        <f t="shared" si="9"/>
+      <c r="J51" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999865710738</v>
       </c>
       <c r="L51" s="8">
@@ -4107,27 +5292,27 @@
         <v>15</v>
       </c>
       <c r="N51" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32768</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1024</v>
       </c>
-      <c r="P51" s="21">
-        <f t="shared" si="12"/>
+      <c r="P51" s="19">
+        <f t="shared" si="14"/>
         <v>4503603926532096</v>
       </c>
-      <c r="Q51" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q51" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R51" s="21">
-        <f t="shared" si="14"/>
+      <c r="R51" s="19">
+        <f t="shared" si="16"/>
         <v>0.24999976134881807</v>
       </c>
-      <c r="S51" s="21">
-        <f t="shared" si="15"/>
+      <c r="S51" s="19">
+        <f t="shared" si="17"/>
         <v>72.095931176817558</v>
       </c>
     </row>
@@ -4136,27 +5321,27 @@
         <v>16</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>65536</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>65536</v>
       </c>
-      <c r="G52" s="21">
-        <f t="shared" si="6"/>
+      <c r="G52" s="19">
+        <f t="shared" si="8"/>
         <v>7.3786976329197945E+19</v>
       </c>
-      <c r="H52" s="21">
-        <f t="shared" si="7"/>
+      <c r="H52" s="19">
+        <f t="shared" si="9"/>
         <v>1.8446744073709552E+19</v>
       </c>
-      <c r="I52" s="21">
-        <f t="shared" si="8"/>
+      <c r="I52" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999988358468</v>
       </c>
-      <c r="J52" s="21">
-        <f t="shared" si="9"/>
+      <c r="J52" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999966427684</v>
       </c>
       <c r="L52" s="8">
@@ -4166,27 +5351,27 @@
         <v>16</v>
       </c>
       <c r="N52" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>65536</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>512</v>
       </c>
-      <c r="P52" s="21">
-        <f t="shared" si="12"/>
+      <c r="P52" s="19">
+        <f t="shared" si="14"/>
         <v>4503616808288256</v>
       </c>
-      <c r="Q52" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q52" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R52" s="21">
-        <f t="shared" si="14"/>
+      <c r="R52" s="19">
+        <f t="shared" si="16"/>
         <v>0.24999904627111436</v>
       </c>
-      <c r="S52" s="21">
-        <f t="shared" si="15"/>
+      <c r="S52" s="19">
+        <f t="shared" si="17"/>
         <v>72.095724959849051</v>
       </c>
     </row>
@@ -4195,27 +5380,27 @@
         <v>17</v>
       </c>
       <c r="E53" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>131072</v>
       </c>
       <c r="F53" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>131072</v>
       </c>
-      <c r="G53" s="21">
-        <f t="shared" si="6"/>
+      <c r="G53" s="19">
+        <f t="shared" si="8"/>
         <v>1.1805916208548503E+21</v>
       </c>
-      <c r="H53" s="21">
-        <f t="shared" si="7"/>
+      <c r="H53" s="19">
+        <f t="shared" si="9"/>
         <v>2.9514790517935283E+20</v>
       </c>
-      <c r="I53" s="21">
-        <f t="shared" si="8"/>
+      <c r="I53" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999997089617</v>
       </c>
-      <c r="J53" s="21">
-        <f t="shared" si="9"/>
+      <c r="J53" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999991606931</v>
       </c>
       <c r="L53" s="8">
@@ -4225,27 +5410,27 @@
         <v>17</v>
       </c>
       <c r="N53" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>131072</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
-      <c r="P53" s="21">
-        <f t="shared" si="12"/>
+      <c r="P53" s="19">
+        <f t="shared" si="14"/>
         <v>4503668347109376</v>
       </c>
-      <c r="Q53" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q53" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R53" s="21">
-        <f t="shared" si="14"/>
+      <c r="R53" s="19">
+        <f t="shared" si="16"/>
         <v>0.24999618534638968</v>
       </c>
-      <c r="S53" s="21">
-        <f t="shared" si="15"/>
+      <c r="S53" s="19">
+        <f t="shared" si="17"/>
         <v>72.094899914933251</v>
       </c>
     </row>
@@ -4254,27 +5439,27 @@
         <v>18</v>
       </c>
       <c r="E54" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>262144</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>262144</v>
       </c>
-      <c r="G54" s="21">
-        <f t="shared" si="6"/>
+      <c r="G54" s="19">
+        <f t="shared" si="8"/>
         <v>1.8889465932028337E+22</v>
       </c>
-      <c r="H54" s="21">
-        <f t="shared" si="7"/>
+      <c r="H54" s="19">
+        <f t="shared" si="9"/>
         <v>4.7223664828696452E+21</v>
       </c>
-      <c r="I54" s="21">
-        <f t="shared" si="8"/>
+      <c r="I54" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999999272404</v>
       </c>
-      <c r="J54" s="21">
-        <f t="shared" si="9"/>
+      <c r="J54" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999997901728</v>
       </c>
       <c r="L54" s="8">
@@ -4284,27 +5469,27 @@
         <v>18</v>
       </c>
       <c r="N54" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>262144</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>128</v>
       </c>
-      <c r="P54" s="21">
-        <f t="shared" si="12"/>
+      <c r="P54" s="19">
+        <f t="shared" si="14"/>
         <v>4503874505342976</v>
       </c>
-      <c r="Q54" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q54" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R54" s="21">
-        <f t="shared" si="14"/>
+      <c r="R54" s="19">
+        <f t="shared" si="16"/>
         <v>0.2499847421385657</v>
       </c>
-      <c r="S54" s="21">
-        <f t="shared" si="15"/>
+      <c r="S54" s="19">
+        <f t="shared" si="17"/>
         <v>72.091599876888139</v>
       </c>
     </row>
@@ -4313,27 +5498,27 @@
         <v>19</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524288</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>524288</v>
       </c>
-      <c r="G55" s="21">
-        <f t="shared" si="6"/>
+      <c r="G55" s="19">
+        <f t="shared" si="8"/>
         <v>3.0223145490585632E+23</v>
       </c>
-      <c r="H55" s="21">
-        <f t="shared" si="7"/>
+      <c r="H55" s="19">
+        <f t="shared" si="9"/>
         <v>7.5557863725914323E+22</v>
       </c>
-      <c r="I55" s="21">
-        <f t="shared" si="8"/>
+      <c r="I55" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999999818101</v>
       </c>
-      <c r="J55" s="21">
-        <f t="shared" si="9"/>
+      <c r="J55" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999999475438</v>
       </c>
       <c r="L55" s="8">
@@ -4343,27 +5528,27 @@
         <v>19</v>
       </c>
       <c r="N55" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>524288</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
-      <c r="P55" s="21">
-        <f t="shared" si="12"/>
+      <c r="P55" s="19">
+        <f t="shared" si="14"/>
         <v>4504699139014656</v>
       </c>
-      <c r="Q55" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q55" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R55" s="21">
-        <f t="shared" si="14"/>
+      <c r="R55" s="19">
+        <f t="shared" si="16"/>
         <v>0.24993897974036505</v>
       </c>
-      <c r="S55" s="21">
-        <f t="shared" si="15"/>
+      <c r="S55" s="19">
+        <f t="shared" si="17"/>
         <v>72.078402733445444</v>
       </c>
     </row>
@@ -4372,27 +5557,27 @@
         <v>20</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1048576</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1048576</v>
       </c>
-      <c r="G56" s="21">
-        <f t="shared" si="6"/>
+      <c r="G56" s="19">
+        <f t="shared" si="8"/>
         <v>4.8357032784673128E+24</v>
       </c>
-      <c r="H56" s="21">
-        <f t="shared" si="7"/>
+      <c r="H56" s="19">
+        <f t="shared" si="9"/>
         <v>1.2089258196146292E+24</v>
       </c>
-      <c r="I56" s="21">
-        <f t="shared" si="8"/>
+      <c r="I56" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999999954525</v>
       </c>
-      <c r="J56" s="21">
-        <f t="shared" si="9"/>
+      <c r="J56" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999999868866</v>
       </c>
       <c r="L56" s="8">
@@ -4402,27 +5587,27 @@
         <v>20</v>
       </c>
       <c r="N56" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1048576</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="P56" s="21">
-        <f t="shared" si="12"/>
+      <c r="P56" s="19">
+        <f t="shared" si="14"/>
         <v>4507997673885696</v>
       </c>
-      <c r="Q56" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q56" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R56" s="21">
-        <f t="shared" si="14"/>
+      <c r="R56" s="19">
+        <f t="shared" si="16"/>
         <v>0.24975609756074868</v>
       </c>
-      <c r="S56" s="21">
-        <f t="shared" si="15"/>
+      <c r="S56" s="19">
+        <f t="shared" si="17"/>
         <v>72.025662438958946</v>
       </c>
     </row>
@@ -4431,27 +5616,27 @@
         <v>21</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2097152</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2097152</v>
       </c>
-      <c r="G57" s="21">
-        <f t="shared" si="6"/>
+      <c r="G57" s="19">
+        <f t="shared" si="8"/>
         <v>7.7371252455371452E+25</v>
       </c>
-      <c r="H57" s="21">
-        <f t="shared" si="7"/>
+      <c r="H57" s="19">
+        <f t="shared" si="9"/>
         <v>1.9342813113834067E+25</v>
       </c>
-      <c r="I57" s="21">
-        <f t="shared" si="8"/>
+      <c r="I57" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999999988631</v>
       </c>
-      <c r="J57" s="21">
-        <f t="shared" si="9"/>
+      <c r="J57" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999999967219</v>
       </c>
       <c r="L57" s="8">
@@ -4461,27 +5646,27 @@
         <v>21</v>
       </c>
       <c r="N57" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2097152</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="P57" s="21">
-        <f t="shared" si="12"/>
+      <c r="P57" s="19">
+        <f t="shared" si="14"/>
         <v>4521191813415936</v>
       </c>
-      <c r="Q57" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q57" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R57" s="21">
-        <f t="shared" si="14"/>
+      <c r="R57" s="19">
+        <f t="shared" si="16"/>
         <v>0.24902723735402921</v>
       </c>
-      <c r="S57" s="21">
-        <f t="shared" si="15"/>
+      <c r="S57" s="19">
+        <f t="shared" si="17"/>
         <v>71.815470817104369</v>
       </c>
     </row>
@@ -4490,27 +5675,27 @@
         <v>22</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4194304</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4194304</v>
       </c>
-      <c r="G58" s="21">
-        <f t="shared" si="6"/>
+      <c r="G58" s="19">
+        <f t="shared" si="8"/>
         <v>1.237940039285521E+27</v>
       </c>
-      <c r="H58" s="21">
-        <f t="shared" si="7"/>
+      <c r="H58" s="19">
+        <f t="shared" si="9"/>
         <v>3.0948500982134507E+26</v>
       </c>
-      <c r="I58" s="21">
-        <f t="shared" si="8"/>
+      <c r="I58" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999999997158</v>
       </c>
-      <c r="J58" s="21">
-        <f t="shared" si="9"/>
+      <c r="J58" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999999991804</v>
       </c>
       <c r="L58" s="8">
@@ -4520,27 +5705,27 @@
         <v>22</v>
       </c>
       <c r="N58" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4194304</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="P58" s="21">
-        <f t="shared" si="12"/>
+      <c r="P58" s="19">
+        <f t="shared" si="14"/>
         <v>4573968371548416</v>
       </c>
-      <c r="Q58" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q58" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R58" s="21">
-        <f t="shared" si="14"/>
+      <c r="R58" s="19">
+        <f t="shared" si="16"/>
         <v>0.24615384615383237</v>
       </c>
-      <c r="S58" s="21">
-        <f t="shared" si="15"/>
+      <c r="S58" s="19">
+        <f t="shared" si="17"/>
         <v>70.986830769226799</v>
       </c>
     </row>
@@ -4549,27 +5734,27 @@
         <v>23</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8388608</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8388608</v>
       </c>
-      <c r="G59" s="21">
-        <f t="shared" si="6"/>
+      <c r="G59" s="19">
+        <f t="shared" si="8"/>
         <v>1.9807040628566647E+28</v>
       </c>
-      <c r="H59" s="21">
-        <f t="shared" si="7"/>
+      <c r="H59" s="19">
+        <f t="shared" si="9"/>
         <v>4.9517601571415211E+27</v>
       </c>
-      <c r="I59" s="21">
-        <f t="shared" si="8"/>
+      <c r="I59" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999999999289</v>
       </c>
-      <c r="J59" s="21">
-        <f t="shared" si="9"/>
+      <c r="J59" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999999997957</v>
       </c>
       <c r="L59" s="8">
@@ -4579,27 +5764,27 @@
         <v>23</v>
       </c>
       <c r="N59" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8388608</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="P59" s="21">
-        <f t="shared" si="12"/>
+      <c r="P59" s="19">
+        <f t="shared" si="14"/>
         <v>4785074604081216</v>
       </c>
-      <c r="Q59" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q59" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R59" s="21">
-        <f t="shared" si="14"/>
+      <c r="R59" s="19">
+        <f t="shared" si="16"/>
         <v>0.23529411764705568</v>
       </c>
-      <c r="S59" s="21">
-        <f t="shared" si="15"/>
+      <c r="S59" s="19">
+        <f t="shared" si="17"/>
         <v>67.855058823528509</v>
       </c>
     </row>
@@ -4608,27 +5793,27 @@
         <v>24</v>
       </c>
       <c r="E60" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16777216</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="G60" s="21">
-        <f t="shared" si="6"/>
+      <c r="G60" s="19">
+        <f t="shared" si="8"/>
         <v>3.169126500570596E+29</v>
       </c>
-      <c r="H60" s="21">
-        <f t="shared" si="7"/>
+      <c r="H60" s="19">
+        <f t="shared" si="9"/>
         <v>7.9228162514264338E+28</v>
       </c>
-      <c r="I60" s="21">
-        <f t="shared" si="8"/>
+      <c r="I60" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999999999822</v>
       </c>
-      <c r="J60" s="21">
-        <f t="shared" si="9"/>
+      <c r="J60" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999999999492</v>
       </c>
       <c r="L60" s="8">
@@ -4638,27 +5823,27 @@
         <v>24</v>
       </c>
       <c r="N60" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16777216</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="P60" s="21">
-        <f t="shared" si="12"/>
+      <c r="P60" s="19">
+        <f t="shared" si="14"/>
         <v>5629499534213136</v>
       </c>
-      <c r="Q60" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q60" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R60" s="21">
-        <f t="shared" si="14"/>
+      <c r="R60" s="19">
+        <f t="shared" si="16"/>
         <v>0.19999999999999943</v>
       </c>
-      <c r="S60" s="21">
-        <f t="shared" si="15"/>
+      <c r="S60" s="19">
+        <f t="shared" si="17"/>
         <v>57.676799999999837</v>
       </c>
     </row>
@@ -4667,27 +5852,27 @@
         <v>25</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>33554432</v>
       </c>
-      <c r="G61" s="21">
-        <f t="shared" si="6"/>
+      <c r="G61" s="19">
+        <f t="shared" si="8"/>
         <v>5.0706024009129266E+30</v>
       </c>
-      <c r="H61" s="21">
-        <f t="shared" si="7"/>
+      <c r="H61" s="19">
+        <f t="shared" si="9"/>
         <v>1.2676506002282294E+30</v>
       </c>
-      <c r="I61" s="21">
-        <f t="shared" si="8"/>
+      <c r="I61" s="19">
+        <f t="shared" si="10"/>
         <v>0.24999999999999956</v>
       </c>
-      <c r="J61" s="21">
-        <f t="shared" si="9"/>
+      <c r="J61" s="19">
+        <f t="shared" si="11"/>
         <v>72.095999999999876</v>
       </c>
       <c r="L61" s="8">
@@ -4697,27 +5882,27 @@
         <v>25</v>
       </c>
       <c r="N61" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>33554432</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="P61" s="21">
-        <f t="shared" si="12"/>
+      <c r="P61" s="19">
+        <f t="shared" si="14"/>
         <v>9007199254740996</v>
       </c>
-      <c r="Q61" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q61" s="19">
+        <f t="shared" si="15"/>
         <v>1125899906842624</v>
       </c>
-      <c r="R61" s="21">
-        <f t="shared" si="14"/>
+      <c r="R61" s="19">
+        <f t="shared" si="16"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="S61" s="21">
-        <f t="shared" si="15"/>
+      <c r="S61" s="19">
+        <f t="shared" si="17"/>
         <v>36.047999999999988</v>
       </c>
     </row>
@@ -4730,4 +5915,581 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF309A31-3ADD-4277-A849-5D3C5D1F1BBD}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="22"/>
+    <col min="5" max="5" width="16" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="22" customWidth="1"/>
+    <col min="7" max="9" width="16" style="22" customWidth="1"/>
+    <col min="10" max="10" width="16" style="23" customWidth="1"/>
+    <col min="11" max="13" width="16" style="22" customWidth="1"/>
+    <col min="14" max="14" width="16" style="24" customWidth="1"/>
+    <col min="15" max="15" width="16" style="22" customWidth="1"/>
+    <col min="16" max="16" width="16" style="25" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="22">
+        <v>32</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="22">
+        <v>32</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="23">
+        <v>9.3099600000000002E-4</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="22">
+        <v>4304.87</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="24">
+        <v>1.49275</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="25">
+        <v>1.04894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22">
+        <v>64</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="22">
+        <v>32</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="22">
+        <v>32</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="23">
+        <v>2.7274999999999999E-3</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="22">
+        <v>5873.34</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="24">
+        <v>2.0366399999999998</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="25">
+        <v>1.4321699999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="22">
+        <v>128</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22">
+        <v>32</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="22">
+        <v>32</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="23">
+        <v>8.2465300000000002E-3</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="22">
+        <v>7768.89</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="24">
+        <v>2.69394</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="25">
+        <v>1.8947400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="22">
+        <v>256</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="22">
+        <v>32</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="22">
+        <v>32</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="23">
+        <v>3.2424099999999997E-2</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="22">
+        <v>7903.18</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="24">
+        <v>2.74051</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="25">
+        <v>1.9275800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="22">
+        <v>512</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22">
+        <v>32</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="22">
+        <v>32</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0.12882299999999999</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="22">
+        <v>7956.7</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="24">
+        <v>2.7590599999999998</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="25">
+        <v>1.94065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1024</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="22">
+        <v>32</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="22">
+        <v>32</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.51441800000000004</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="22">
+        <v>7970.18</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="24">
+        <v>2.7637399999999999</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="25">
+        <v>1.9439500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="22">
+        <v>32</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="22">
+        <v>64</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="22">
+        <v>32</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="23">
+        <v>7.2435700000000004E-3</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="22">
+        <v>2211.5500000000002</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0.76687700000000003</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0.53927099999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="22">
+        <v>64</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="22">
+        <v>64</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="22">
+        <v>32</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="23">
+        <v>1.8206699999999999E-2</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="22">
+        <v>3516.9</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="24">
+        <v>1.2195199999999999</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0.85819900000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="22">
+        <v>128</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="22">
+        <v>64</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="22">
+        <v>32</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="23">
+        <v>6.53001E-2</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="22">
+        <v>3921.56</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="24">
+        <v>1.3598399999999999</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0.95711900000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="22">
+        <v>256</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="22">
+        <v>64</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="22">
+        <v>32</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.25187700000000002</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="22">
+        <v>4066.54</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="24">
+        <v>1.41011</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0.99255000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="22">
+        <v>512</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="22">
+        <v>64</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="22">
+        <v>32</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1024</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="23">
+        <v>1.0011099999999999</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="22">
+        <v>4092.47</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="24">
+        <v>1.4191100000000001</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0.998892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>